--- a/BasicStrategy/Blackjack-BasicStrategy.xlsx
+++ b/BasicStrategy/Blackjack-BasicStrategy.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernesthwang/src/GitHub/BlackjackCharts/BasicStrategy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A79E197-FA1C-414F-A0B8-E9056C6182D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F161389-4D0B-474D-9AE7-54F49DA9F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{37C6B974-CD76-E640-86C2-3FD8C339C3E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="18000" activeTab="6" xr2:uid="{37C6B974-CD76-E640-86C2-3FD8C339C3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Chart" sheetId="8" r:id="rId1"/>
-    <sheet name="4D+, S17x" sheetId="9" r:id="rId2"/>
-    <sheet name="4D+, S17" sheetId="2" r:id="rId3"/>
-    <sheet name="4D+, H17" sheetId="3" r:id="rId4"/>
-    <sheet name="2D, S17" sheetId="4" r:id="rId5"/>
-    <sheet name="2D, H17" sheetId="5" r:id="rId6"/>
-    <sheet name="1D, S17" sheetId="6" r:id="rId7"/>
-    <sheet name="1D, H17" sheetId="7" r:id="rId8"/>
+    <sheet name="4D+, S17" sheetId="11" r:id="rId2"/>
+    <sheet name="4D+, H17" sheetId="12" r:id="rId3"/>
+    <sheet name="2D, S17" sheetId="13" r:id="rId4"/>
+    <sheet name="2D, H17" sheetId="14" r:id="rId5"/>
+    <sheet name="1D, S17" sheetId="15" r:id="rId6"/>
+    <sheet name="1D, H17" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="43">
   <si>
     <t>A-2</t>
   </si>
@@ -177,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,8 +207,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -277,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,11 +328,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -329,30 +357,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -457,6 +461,18 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -469,11 +485,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -517,11 +533,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -541,6 +557,55 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -553,11 +618,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -601,11 +666,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -625,6 +690,55 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -637,11 +751,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -685,11 +799,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -709,6 +823,55 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -721,11 +884,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -769,11 +932,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -793,6 +956,55 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -805,11 +1017,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -853,11 +1065,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -877,6 +1089,55 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -889,11 +1150,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -937,95 +1198,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1050,6 +1227,43 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1365,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3801B7A3-E47A-1A48-A0E8-82A4E2B79FD1}">
   <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1925,38 +2139,38 @@
     <mergeCell ref="A20:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:R1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+      <formula>"Ps"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"Rp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"Rs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>"Rh"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>"Pd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>"Dh"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Ps"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1964,11 +2178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388DD47C-12FF-0E44-8C19-1BE644EF4036}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968A104A-3679-7045-94B3-12C5575D35D0}">
   <dimension ref="A2:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2306,10 +2520,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2345,13 +2559,13 @@
         <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2389,6 +2603,12 @@
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
@@ -2423,7 +2643,13 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2462,6 +2688,12 @@
       </c>
       <c r="L13" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3049,28 +3281,37 @@
     <mergeCell ref="A20:A29"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:R1048576">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
+      <formula>"Ps"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+      <formula>"Rp"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>"Rs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>"Rh"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+      <formula>"Pd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3079,11 +3320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7A8756-4DA5-344E-A39F-681AA269642F}">
-  <dimension ref="A2:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D68EE2-5B80-FC42-92CD-E6631F35163E}">
+  <dimension ref="A2:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L29"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3091,9 +3332,13 @@
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="14" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" style="12" customWidth="1"/>
+    <col min="16" max="17" width="4.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2">
@@ -3127,7 +3372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3164,8 +3409,14 @@
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>9</v>
@@ -3200,8 +3451,14 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>10</v>
@@ -3236,8 +3493,14 @@
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>11</v>
@@ -3272,8 +3535,14 @@
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>12</v>
@@ -3308,8 +3577,14 @@
       <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4">
         <v>13</v>
@@ -3344,8 +3619,14 @@
       <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>14</v>
@@ -3380,8 +3661,14 @@
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4">
         <v>15</v>
@@ -3414,10 +3701,16 @@
         <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4">
         <v>16</v>
@@ -3452,8 +3745,14 @@
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4">
         <v>17</v>
@@ -3486,10 +3785,16 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -3526,8 +3831,14 @@
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -3563,7 +3874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>2</v>
@@ -3599,7 +3910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -3677,7 +3988,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
@@ -3725,7 +4036,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
@@ -3994,7 +4305,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -4111,26 +4422,38 @@
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:L1048576">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+  <conditionalFormatting sqref="C1:R1048576">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+      <formula>"Ps"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+      <formula>"Rp"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+      <formula>"Rs"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="equal">
       <formula>"Rh"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="equal">
+      <formula>"Pd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4139,11 +4462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A8C93E-F607-D84C-A831-9208CBF00114}">
-  <dimension ref="A2:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C33EF8-56A4-4F41-8046-3322ACBEE396}">
+  <dimension ref="A2:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="C1:L1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4151,9 +4474,13 @@
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="14" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" style="12" customWidth="1"/>
+    <col min="16" max="17" width="4.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2">
@@ -4187,7 +4514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -4224,25 +4551,31 @@
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -4260,34 +4593,40 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -4296,44 +4635,56 @@
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>12</v>
@@ -4368,8 +4719,14 @@
       <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4">
         <v>13</v>
@@ -4404,8 +4761,14 @@
       <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>14</v>
@@ -4440,8 +4803,14 @@
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4">
         <v>15</v>
@@ -4476,8 +4845,14 @@
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4">
         <v>16</v>
@@ -4504,7 +4879,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>27</v>
@@ -4512,8 +4887,14 @@
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4">
         <v>17</v>
@@ -4548,8 +4929,14 @@
       <c r="L12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4565,10 +4952,10 @@
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -4586,8 +4973,14 @@
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -4601,10 +4994,10 @@
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -4623,7 +5016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>2</v>
@@ -4634,13 +5027,13 @@
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -4659,7 +5052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -4670,13 +5063,13 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -4703,16 +5096,16 @@
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -4918,28 +5311,28 @@
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -4955,22 +5348,22 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -5009,7 +5402,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
@@ -5171,26 +5564,38 @@
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:L1048576">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+  <conditionalFormatting sqref="H4:R4 K5:R5 L6:R6 C17 C15:D16 C13:E14 H13:R17 C7:R12 K23:R23 C18:R22 C24:R1048576 C1:R3">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+      <formula>"Ps"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"Rp"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+      <formula>"Rs"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>"Rh"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+      <formula>"Pd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5199,11 +5604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7175FC2-5746-234F-B904-929837627E64}">
-  <dimension ref="A2:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D073389-85AE-8544-9D15-F36308C97FD4}">
+  <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5211,9 +5616,13 @@
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="14" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" style="12" customWidth="1"/>
+    <col min="16" max="17" width="4.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2">
@@ -5247,7 +5656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -5284,25 +5693,31 @@
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -5320,34 +5735,40 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -5356,44 +5777,56 @@
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>12</v>
@@ -5428,8 +5861,14 @@
       <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4">
         <v>13</v>
@@ -5464,8 +5903,14 @@
       <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>14</v>
@@ -5500,8 +5945,14 @@
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4">
         <v>15</v>
@@ -5534,10 +5985,16 @@
         <v>27</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4">
         <v>16</v>
@@ -5564,7 +6021,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>27</v>
@@ -5572,8 +6029,14 @@
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4">
         <v>17</v>
@@ -5606,10 +6069,16 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -5625,10 +6094,10 @@
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -5646,8 +6115,14 @@
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -5661,10 +6136,10 @@
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -5683,7 +6158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>2</v>
@@ -5694,13 +6169,13 @@
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -5719,7 +6194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -5730,13 +6205,13 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -5763,16 +6238,16 @@
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -5797,7 +6272,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
@@ -5845,7 +6320,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
@@ -5978,28 +6453,28 @@
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -6015,22 +6490,22 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -6069,7 +6544,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
@@ -6114,7 +6589,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -6231,26 +6706,38 @@
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:L1048576">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+  <conditionalFormatting sqref="H4:R4 K5:R5 L6:R6 C17 C15:D16 C13:E14 H13:R17 K23:R23 C7:R12 C24:R1048576 C1:R3 C18:R22">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>"Ps"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+      <formula>"Rp"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+      <formula>"Rs"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>"Rh"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+      <formula>"Pd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6259,11 +6746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A498833B-270D-B24E-8BFA-F4E842383AE5}">
-  <dimension ref="A2:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D12B69-C6F6-6648-ABD6-581719B89148}">
+  <dimension ref="A2:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6271,9 +6758,13 @@
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="14" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" style="12" customWidth="1"/>
+    <col min="16" max="17" width="4.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2">
@@ -6307,7 +6798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -6323,11 +6814,11 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
@@ -6344,25 +6835,31 @@
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -6380,34 +6877,40 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -6416,44 +6919,56 @@
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>12</v>
@@ -6488,8 +7003,14 @@
       <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4">
         <v>13</v>
@@ -6524,8 +7045,14 @@
       <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>14</v>
@@ -6560,8 +7087,14 @@
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4">
         <v>15</v>
@@ -6591,13 +7124,19 @@
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4">
         <v>16</v>
@@ -6624,7 +7163,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>27</v>
@@ -6632,8 +7171,14 @@
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4">
         <v>17</v>
@@ -6668,8 +7213,14 @@
       <c r="L12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -6682,13 +7233,13 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -6706,8 +7257,14 @@
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -6718,13 +7275,13 @@
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -6743,7 +7300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>2</v>
@@ -6754,13 +7311,13 @@
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -6779,7 +7336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -6790,13 +7347,13 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -6820,19 +7377,19 @@
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -6884,7 +7441,7 @@
         <v>21</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6905,7 +7462,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
@@ -6934,7 +7491,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
@@ -6985,7 +7542,7 @@
         <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>21</v>
@@ -7009,13 +7566,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>21</v>
@@ -7038,28 +7595,28 @@
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -7075,22 +7632,22 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -7129,13 +7686,13 @@
         <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>21</v>
@@ -7291,26 +7848,38 @@
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:L1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+  <conditionalFormatting sqref="K5:R5 M6:R6 H13:R17 K23:R23 C24:R1048576 C1:R2 C3:E3 H3:R4 C7:R12 C13:D16 C18:R22">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"Ps"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"Rp"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"Rs"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"Rh"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"Pd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7319,11 +7888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16040A19-67A5-C040-92D8-693602483AEA}">
-  <dimension ref="A2:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E89E5E-CCD2-1141-BAC6-844EA5FA7242}">
+  <dimension ref="A2:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7331,9 +7900,13 @@
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="14" width="4.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="32.83203125" style="12" customWidth="1"/>
+    <col min="16" max="17" width="4.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="2">
@@ -7367,7 +7940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -7383,11 +7956,11 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
@@ -7404,25 +7977,31 @@
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -7440,34 +8019,40 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -7476,44 +8061,56 @@
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>12</v>
@@ -7548,8 +8145,14 @@
       <c r="L7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4">
         <v>13</v>
@@ -7584,8 +8187,14 @@
       <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>14</v>
@@ -7620,8 +8229,14 @@
       <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4">
         <v>15</v>
@@ -7651,13 +8266,19 @@
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4">
         <v>16</v>
@@ -7684,7 +8305,7 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>27</v>
@@ -7692,8 +8313,14 @@
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4">
         <v>17</v>
@@ -7726,10 +8353,16 @@
         <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -7742,13 +8375,13 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -7766,8 +8399,14 @@
       <c r="L13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -7778,13 +8417,13 @@
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -7803,7 +8442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>2</v>
@@ -7814,13 +8453,13 @@
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -7839,7 +8478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
@@ -7850,13 +8489,13 @@
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="E16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -7880,19 +8519,19 @@
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -7965,7 +8604,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
@@ -7994,7 +8633,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
@@ -8045,7 +8684,7 @@
         <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>21</v>
@@ -8069,13 +8708,13 @@
         <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>21</v>
@@ -8098,28 +8737,28 @@
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="C23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -8135,22 +8774,22 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>21</v>
@@ -8189,16 +8828,16 @@
         <v>25</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -8270,7 +8909,7 @@
         <v>23</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -8351,1086 +8990,38 @@
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="A20:A29"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:L1048576">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+  <conditionalFormatting sqref="K5:R5 M6:R6 H13:R17 K23:R23 C7:R12 C1:R2 C3:E3 H3:R4 C13:D16 C18:R22 C24:R1048576">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"Ps"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"Rp"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Rs"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Rh"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>"P"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Pd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Ds"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"Ph"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
-      <formula>"Dh"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E0958C-B29A-2F43-AF19-CB5F021887FF}">
-  <dimension ref="A2:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X11" activeCellId="1" sqref="B3 X11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="12" width="4.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A29"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C1:L1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"Rh"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"S"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"Ds"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"H"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>"Ph"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"Dh"</formula>
     </cfRule>
   </conditionalFormatting>
